--- a/output/QUALITY/rebalance/rebalance_20250630.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20250630.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27.30%</t>
+          <t>27.26%</t>
         </is>
       </c>
     </row>
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02535217775821858</v>
+        <v>0.02533571491403659</v>
       </c>
       <c r="C2" t="n">
         <v>0.02317775869879941</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.002174419059419171</v>
+        <v>-0.002157956215237185</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02262624119323815</v>
+        <v>0.02260732867705177</v>
       </c>
       <c r="C3" t="n">
         <v>0.02298826922190464</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003620280286664862</v>
+        <v>0.000380940544852864</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02233034171855396</v>
+        <v>0.02231370635711981</v>
       </c>
       <c r="C4" t="n">
         <v>0.02294075585340696</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006104141348530004</v>
+        <v>0.0006270494962871513</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02235359932891545</v>
+        <v>0.02233904384009457</v>
       </c>
       <c r="C5" t="n">
         <v>0.02260453586528871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000250936536373262</v>
+        <v>0.000265492025194141</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02327005610838768</v>
+        <v>0.02325126241959817</v>
       </c>
       <c r="C6" t="n">
         <v>0.02251975376833679</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0007503023400508846</v>
+        <v>-0.0007315086512613769</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02512420051148394</v>
+        <v>0.02510619969838311</v>
       </c>
       <c r="C7" t="n">
         <v>0.02233123256964212</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.002792967941841817</v>
+        <v>-0.002774967128740986</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02017087676017365</v>
+        <v>0.02016021240405063</v>
       </c>
       <c r="C9" t="n">
         <v>0.02216923563386615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001998358873692499</v>
+        <v>0.002009023229815519</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01979048240401577</v>
+        <v>0.02050621289338923</v>
       </c>
       <c r="C10" t="n">
         <v>0.02185146569486844</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002060983290852671</v>
+        <v>0.001345252801479208</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02061579390655779</v>
+        <v>0.02060722034836386</v>
       </c>
       <c r="C12" t="n">
         <v>0.02177526975850973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001159475851951936</v>
+        <v>0.001168049410145873</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02008972884774793</v>
+        <v>0.02007405357193588</v>
       </c>
       <c r="C13" t="n">
         <v>0.02154482097292236</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001455092125174428</v>
+        <v>0.001470767400986478</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02161471777719285</v>
+        <v>0.02159702247943313</v>
       </c>
       <c r="C14" t="n">
         <v>0.02154363451126922</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.108326592363337e-05</v>
+        <v>-5.338796816390864e-05</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02529444391904855</v>
+        <v>0.02527083581778181</v>
       </c>
       <c r="C15" t="n">
         <v>0.02128895524109136</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.004005488677957192</v>
+        <v>-0.003981880576690449</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01936013493631393</v>
+        <v>0.0193454047489372</v>
       </c>
       <c r="C16" t="n">
         <v>0.02112745599175402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001767321055440096</v>
+        <v>0.001782051242816822</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02756887904271376</v>
+        <v>0.02755089838943953</v>
       </c>
       <c r="C17" t="n">
         <v>0.02111746090794773</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.006451418134766036</v>
+        <v>-0.006433437481491808</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02095491469320312</v>
+        <v>0.02093792539550712</v>
       </c>
       <c r="C18" t="n">
         <v>0.02111192147250108</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001570067792979572</v>
+        <v>0.0001739960769939555</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02241611969959952</v>
+        <v>0.02239870747915868</v>
       </c>
       <c r="C19" t="n">
         <v>0.02095916524767742</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0014569544519221</v>
+        <v>-0.001439542231481256</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01632446280082512</v>
+        <v>0.01631274230242371</v>
       </c>
       <c r="C20" t="n">
         <v>0.02069353045868919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004369067657864073</v>
+        <v>0.00438078815626548</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01743409631793372</v>
+        <v>0.01742216297690368</v>
       </c>
       <c r="C22" t="n">
         <v>0.02035701813326457</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002922921815330853</v>
+        <v>0.002934855156360893</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01698710609792308</v>
+        <v>0.01697432805189452</v>
       </c>
       <c r="C23" t="n">
         <v>0.02020172071292903</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003214614615005953</v>
+        <v>0.003227392661034514</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02225448892773168</v>
+        <v>0.02223797922023066</v>
       </c>
       <c r="C24" t="n">
         <v>0.0199952628379445</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002259226089787177</v>
+        <v>-0.002242716382286156</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01628337959618157</v>
+        <v>0.01627120662712119</v>
       </c>
       <c r="C25" t="n">
         <v>0.01991932358800113</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003635943991819567</v>
+        <v>0.003648116960879945</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01702098400389879</v>
+        <v>0.01700987470721495</v>
       </c>
       <c r="C26" t="n">
         <v>0.01989352232515231</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002872538321253525</v>
+        <v>0.002883647617937361</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02796837162370629</v>
+        <v>0.02794375627292538</v>
       </c>
       <c r="C27" t="n">
         <v>0.0198703364116687</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.008098035212037585</v>
+        <v>-0.008073419861256682</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01971443207101903</v>
+        <v>0.01969914698248245</v>
       </c>
       <c r="C28" t="n">
         <v>0.01985452452848362</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001400924574645815</v>
+        <v>0.0001553775460011696</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02773714176088857</v>
+        <v>0.02771423422738226</v>
       </c>
       <c r="C29" t="n">
         <v>0.01981394811036057</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.007923193650528002</v>
+        <v>-0.00790028611702169</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01413890299058976</v>
+        <v>0.01412848532400198</v>
       </c>
       <c r="C30" t="n">
         <v>0.01960183172595338</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005462928735363618</v>
+        <v>0.005473346401951396</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02706534773986137</v>
+        <v>0.02704273317351251</v>
       </c>
       <c r="C31" t="n">
         <v>0.01954453860503116</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.007520809134830209</v>
+        <v>-0.007498194568481348</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01982687842057126</v>
+        <v>0.01980826663520633</v>
       </c>
       <c r="C33" t="n">
         <v>0.01939543802257268</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0004314403979985802</v>
+        <v>-0.0004128286126336526</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02258068088659516</v>
+        <v>0.02256348070932693</v>
       </c>
       <c r="C34" t="n">
         <v>0.01915452356141754</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.003426157325177617</v>
+        <v>-0.003408957147909387</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0281137583684141</v>
+        <v>0.02808797839652248</v>
       </c>
       <c r="C35" t="n">
         <v>0.01875718582478847</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.009356572543625628</v>
+        <v>-0.009330792571734008</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01568546253216529</v>
+        <v>0.01567367284873785</v>
       </c>
       <c r="C36" t="n">
         <v>0.01868802309621014</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00300256056404485</v>
+        <v>0.003014350247472285</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01715055720742028</v>
+        <v>0.01713709919145778</v>
       </c>
       <c r="C37" t="n">
         <v>0.01857538267999757</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001424825472577287</v>
+        <v>0.001438283488539787</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02214425438409908</v>
+        <v>0.02213001136985248</v>
       </c>
       <c r="C38" t="n">
         <v>0.01855260247365376</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.003591651910445318</v>
+        <v>-0.003577408896198717</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01541675998765869</v>
+        <v>0.01542366261546658</v>
       </c>
       <c r="C41" t="n">
         <v>0.01814735950844996</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002730599520791271</v>
+        <v>0.002723696892983388</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02078001590223614</v>
+        <v>0.02076612531343574</v>
       </c>
       <c r="C44" t="n">
         <v>0.01785740082953677</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002922615072699374</v>
+        <v>-0.002908724483898974</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01473496956870985</v>
+        <v>0.01472605867755247</v>
       </c>
       <c r="C45" t="n">
         <v>0.01779082778168211</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003055858212972265</v>
+        <v>0.003064769104129637</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0158970012053687</v>
+        <v>0.01588504820731038</v>
       </c>
       <c r="C47" t="n">
         <v>0.01774584562644684</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001848844421078143</v>
+        <v>0.001860797419136462</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7194,13 +7194,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01601950548842841</v>
+        <v>0.01600608877351129</v>
       </c>
       <c r="C48" t="n">
         <v>0.01764618284758328</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001626677359154872</v>
+        <v>0.001640094074071986</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01521509985940134</v>
+        <v>0.01520392428482175</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01521509985940134</v>
+        <v>-0.01520392428482175</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01918167553075064</v>
+        <v>0.01916822142739332</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01918167553075064</v>
+        <v>-0.01916822142739332</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01694961100557277</v>
+        <v>0.01693842457249027</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01694961100557277</v>
+        <v>-0.01693842457249027</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01642979230768775</v>
+        <v>0.01642206276695675</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01642979230768775</v>
+        <v>-0.01642206276695675</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0161816162614415</v>
+        <v>0.01617316271559176</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0161816162614415</v>
+        <v>-0.01617316271559176</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02218801381240685</v>
+        <v>0.02216820735399506</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02218801381240685</v>
+        <v>-0.02216820735399506</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7404,13 +7404,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01796964320802171</v>
+        <v>0.01795454771716963</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01796964320802171</v>
+        <v>-0.01795454771716963</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7425,13 +7425,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01504906408584362</v>
+        <v>0.01503769947696921</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01504906408584362</v>
+        <v>-0.01503769947696921</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02027179688152437</v>
+        <v>0.02025310865442424</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02027179688152437</v>
+        <v>-0.02025310865442424</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01655569722843814</v>
+        <v>0.01654513885125984</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01655569722843814</v>
+        <v>-0.01654513885125984</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7488,13 +7488,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01843082797318456</v>
+        <v>0.01841442732038169</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01843082797318456</v>
+        <v>-0.01841442732038169</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01536589535813607</v>
+        <v>0.01535518281979177</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01536589535813607</v>
+        <v>-0.01535518281979177</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>

--- a/output/QUALITY/rebalance/rebalance_20250630.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20250630.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27.26%</t>
+          <t>27.13%</t>
         </is>
       </c>
     </row>
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02533571491403659</v>
+        <v>0.02558213824722263</v>
       </c>
       <c r="C2" t="n">
         <v>0.02317775869879941</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.002157956215237185</v>
+        <v>-0.002404379548423218</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02260732867705177</v>
+        <v>0.02283147569177875</v>
       </c>
       <c r="C3" t="n">
         <v>0.02298826922190464</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000380940544852864</v>
+        <v>0.000156793530125883</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02231370635711981</v>
+        <v>0.02253289221935111</v>
       </c>
       <c r="C4" t="n">
         <v>0.02294075585340696</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006270494962871513</v>
+        <v>0.0004078636340558509</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02233904384009457</v>
+        <v>0.02255636079113387</v>
       </c>
       <c r="C5" t="n">
         <v>0.02260453586528871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000265492025194141</v>
+        <v>4.817507415483951e-05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02325126241959817</v>
+        <v>0.0232780064549627</v>
       </c>
       <c r="C6" t="n">
         <v>0.02251975376833679</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0007315086512613769</v>
+        <v>-0.0007582526866259029</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02510619969838311</v>
+        <v>0.02535209310085267</v>
       </c>
       <c r="C7" t="n">
         <v>0.02233123256964212</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.002774967128740986</v>
+        <v>-0.003020860531210548</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02016021240405063</v>
+        <v>0.02035383953077455</v>
       </c>
       <c r="C9" t="n">
         <v>0.02216923563386615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002009023229815519</v>
+        <v>0.001815396103091602</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02050621289338923</v>
+        <v>0.01923224972504827</v>
       </c>
       <c r="C10" t="n">
         <v>0.02185146569486844</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001345252801479208</v>
+        <v>0.002619215969820166</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02060722034836386</v>
+        <v>0.02080279236062241</v>
       </c>
       <c r="C12" t="n">
         <v>0.02177526975850973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001168049410145873</v>
+        <v>0.0009724773978873232</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02007405357193588</v>
+        <v>0.02027195555481211</v>
       </c>
       <c r="C13" t="n">
         <v>0.02154482097292236</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001470767400986478</v>
+        <v>0.001272865418110249</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02159702247943313</v>
+        <v>0.02181077711052235</v>
       </c>
       <c r="C14" t="n">
         <v>0.02154363451126922</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.338796816390864e-05</v>
+        <v>-0.0002671425992531277</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02527083581778181</v>
+        <v>0.02552388072515584</v>
       </c>
       <c r="C15" t="n">
         <v>0.02128895524109136</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.003981880576690449</v>
+        <v>-0.00423492548406448</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0193454047489372</v>
+        <v>0.01953574375933489</v>
       </c>
       <c r="C16" t="n">
         <v>0.02112745599175402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001782051242816822</v>
+        <v>0.001591712232419128</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02755089838943953</v>
+        <v>0.02672371232055082</v>
       </c>
       <c r="C17" t="n">
         <v>0.02111746090794773</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.006433437481491808</v>
+        <v>-0.005606251412603097</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6564,17 +6564,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02093792539550712</v>
+        <v>0.02114498918999163</v>
       </c>
       <c r="C18" t="n">
         <v>0.02111192147250108</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001739960769939555</v>
+        <v>-3.306771749055776e-05</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02239870747915868</v>
+        <v>0.02252204349696419</v>
       </c>
       <c r="C19" t="n">
         <v>0.02095916524767742</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001439542231481256</v>
+        <v>-0.001562878249286765</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01631274230242371</v>
+        <v>0.01647253613338878</v>
       </c>
       <c r="C20" t="n">
         <v>0.02069353045868919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00438078815626548</v>
+        <v>0.00422099432530041</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01742216297690368</v>
+        <v>0.01759223473715947</v>
       </c>
       <c r="C22" t="n">
         <v>0.02035701813326457</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002934855156360893</v>
+        <v>0.0027647833961051</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01697432805189452</v>
+        <v>0.01714119002957966</v>
       </c>
       <c r="C23" t="n">
         <v>0.02020172071292903</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003227392661034514</v>
+        <v>0.003060530683349376</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02223797922023066</v>
+        <v>0.02245635139513638</v>
       </c>
       <c r="C24" t="n">
         <v>0.0199952628379445</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002242716382286156</v>
+        <v>-0.00246108855719188</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01627120662712119</v>
+        <v>0.01643108027776749</v>
       </c>
       <c r="C25" t="n">
         <v>0.01991932358800113</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003648116960879945</v>
+        <v>0.003488243310233643</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01700987470721495</v>
+        <v>0.01717537522985955</v>
       </c>
       <c r="C26" t="n">
         <v>0.01989352232515231</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002883647617937361</v>
+        <v>0.002718147095292764</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02794375627292538</v>
+        <v>0.02822206266660495</v>
       </c>
       <c r="C27" t="n">
         <v>0.0198703364116687</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.008073419861256682</v>
+        <v>-0.008351726254936249</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6774,17 +6774,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01969914698248245</v>
+        <v>0.0198932545959605</v>
       </c>
       <c r="C28" t="n">
         <v>0.01985452452848362</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001553775460011696</v>
+        <v>-3.873006747687896e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02771423422738226</v>
+        <v>0.02726902506196211</v>
       </c>
       <c r="C29" t="n">
         <v>0.01981394811036057</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.00790028611702169</v>
+        <v>-0.007455076951601542</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01412848532400198</v>
+        <v>0.01426715189593843</v>
       </c>
       <c r="C30" t="n">
         <v>0.01960183172595338</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005473346401951396</v>
+        <v>0.005334679830014951</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02704273317351251</v>
+        <v>0.02700042939868046</v>
       </c>
       <c r="C31" t="n">
         <v>0.01954453860503116</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.007498194568481348</v>
+        <v>-0.007455890793649306</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01980826663520633</v>
+        <v>0.02000672090591908</v>
       </c>
       <c r="C33" t="n">
         <v>0.01939543802257268</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0004128286126336526</v>
+        <v>-0.0006112828833464007</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02256348070932693</v>
+        <v>0.02278550212397554</v>
       </c>
       <c r="C34" t="n">
         <v>0.01915452356141754</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.003408957147909387</v>
+        <v>-0.003630978562557993</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02808797839652248</v>
+        <v>0.02836876816219982</v>
       </c>
       <c r="C35" t="n">
         <v>0.01875718582478847</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.009330792571734008</v>
+        <v>-0.009611582337411346</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01567367284873785</v>
+        <v>0.01582773972304613</v>
       </c>
       <c r="C36" t="n">
         <v>0.01868802309621014</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003014350247472285</v>
+        <v>0.002860283373164008</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01713709919145778</v>
+        <v>0.01730612374532181</v>
       </c>
       <c r="C37" t="n">
         <v>0.01857538267999757</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001438283488539787</v>
+        <v>0.001269258934675756</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02213001136985248</v>
+        <v>0.02213728261150385</v>
       </c>
       <c r="C38" t="n">
         <v>0.01855260247365376</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.003577408896198717</v>
+        <v>-0.003584680137850089</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01542366261546658</v>
+        <v>0.01523781709006013</v>
       </c>
       <c r="C41" t="n">
         <v>0.01814735950844996</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002723696892983388</v>
+        <v>0.002909542418389833</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02076612531343574</v>
+        <v>0.02048049637329987</v>
       </c>
       <c r="C44" t="n">
         <v>0.01785740082953677</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002908724483898974</v>
+        <v>-0.002623095543763103</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01472605867755247</v>
+        <v>0.01407662805954816</v>
       </c>
       <c r="C45" t="n">
         <v>0.01779082778168211</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003064769104129637</v>
+        <v>0.003714199722133953</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01588504820731038</v>
+        <v>0.0160411971874949</v>
       </c>
       <c r="C47" t="n">
         <v>0.01774584562644684</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001860797419136462</v>
+        <v>0.00170464843895194</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7194,13 +7194,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01600608877351129</v>
+        <v>0.01616481266285951</v>
       </c>
       <c r="C48" t="n">
         <v>0.01764618284758328</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001640094074071986</v>
+        <v>0.001481370184723767</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01520392428482175</v>
+        <v>0.01535311055959763</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01520392428482175</v>
+        <v>-0.01535311055959763</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01916822142739332</v>
+        <v>0.01935566561266926</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01916822142739332</v>
+        <v>-0.01935566561266926</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01693842457249027</v>
+        <v>0.01710335483272805</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01693842457249027</v>
+        <v>-0.01710335483272805</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01642206276695675</v>
+        <v>0.01404323665101459</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01642206276695675</v>
+        <v>-0.01404323665101459</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01617316271559176</v>
+        <v>0.0157662269588095</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01617316271559176</v>
+        <v>-0.0157662269588095</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02216820735399506</v>
+        <v>0.02238927330794172</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02216820735399506</v>
+        <v>-0.02238927330794172</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7404,13 +7404,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01795454771716963</v>
+        <v>0.01813263938053023</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01795454771716963</v>
+        <v>-0.01813263938053023</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7425,13 +7425,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01503769947696921</v>
+        <v>0.01514923962342982</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01503769947696921</v>
+        <v>-0.01514923962342982</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02025310865442424</v>
+        <v>0.02045567506225995</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02025310865442424</v>
+        <v>-0.02045567506225995</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01654513885125984</v>
+        <v>0.01573956640771371</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01654513885125984</v>
+        <v>-0.01573956640771371</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7488,13 +7488,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01841442732038169</v>
+        <v>0.01859800738687769</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01841442732038169</v>
+        <v>-0.01859800738687769</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01535518281979177</v>
+        <v>0.01550527387008249</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01535518281979177</v>
+        <v>-0.01550527387008249</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
